--- a/data/daschland_ontology/daschland (Alice in DaSCHland)/properties.xlsx
+++ b/data/daschland_ontology/daschland (Alice in DaSCHland)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/daschland_ontology/daschland (Alice in DaSCHland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D80854-34E3-9D4C-8291-F8EDA08B2625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687B0D2-B308-0A44-907D-669F1923C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="620" windowWidth="68740" windowHeight="30240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,9 +694,6 @@
     <t>hasLinkTo, schema:chapter, crm:P5_consists_of</t>
   </si>
   <si>
-    <t>:BookChapter</t>
-  </si>
-  <si>
     <t>linkToBookEdition</t>
   </si>
   <si>
@@ -1238,18 +1235,28 @@
   </si>
   <si>
     <t>isPartOfStoryChapter</t>
+  </si>
+  <si>
+    <t>:StoryChapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1376,24 +1383,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1611,9 +1619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q912"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1685,21 +1693,21 @@
         <v>14</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1708,13 +1716,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>17</v>
@@ -1746,13 +1754,13 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>26</v>
@@ -1761,7 +1769,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1784,10 +1792,10 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -1863,13 +1871,13 @@
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>49</v>
@@ -1903,7 +1911,7 @@
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
         <v>53</v>
@@ -1945,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>62</v>
@@ -1982,13 +1990,13 @@
         <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>63</v>
@@ -2000,7 +2008,7 @@
         <v>27</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q9" s="4"/>
     </row>
@@ -2024,13 +2032,13 @@
         <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>76</v>
@@ -2065,13 +2073,13 @@
         <v>85</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>86</v>
@@ -2104,13 +2112,13 @@
         <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>93</v>
@@ -2142,13 +2150,13 @@
         <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>97</v>
@@ -2182,13 +2190,13 @@
         <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>106</v>
@@ -2220,13 +2228,13 @@
         <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>110</v>
@@ -2260,13 +2268,13 @@
         <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>117</v>
@@ -2301,13 +2309,13 @@
         <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>125</v>
@@ -2383,13 +2391,13 @@
         <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>137</v>
@@ -2419,16 +2427,16 @@
         <v>142</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>143</v>
@@ -2462,16 +2470,16 @@
         <v>146</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>147</v>
@@ -2502,16 +2510,16 @@
         <v>152</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>153</v>
@@ -2540,16 +2548,16 @@
         <v>159</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>160</v>
@@ -2563,37 +2571,37 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="G24" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>352</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>173</v>
+      <c r="M24" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>164</v>
@@ -2603,37 +2611,37 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="I25" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="J25" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>164</v>
@@ -2646,28 +2654,28 @@
         <v>165</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>166</v>
@@ -2683,7 +2691,7 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>168</v>
@@ -2698,22 +2706,22 @@
         <v>171</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>173</v>
+      <c r="M27" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>164</v>
@@ -2721,37 +2729,37 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" t="s">
+        <v>298</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>326</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" t="s">
-        <v>299</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J28" t="s">
-        <v>327</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>164</v>
@@ -2759,37 +2767,37 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>164</v>
@@ -2799,37 +2807,37 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" t="s">
         <v>181</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
       <c r="G30" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>164</v>
@@ -2837,37 +2845,37 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" t="s">
         <v>186</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>188</v>
       </c>
-      <c r="E31" t="s">
-        <v>189</v>
-      </c>
       <c r="G31" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>164</v>
@@ -2875,37 +2883,37 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" t="s">
+        <v>302</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>330</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H32" t="s">
-        <v>303</v>
-      </c>
-      <c r="I32" t="s">
-        <v>245</v>
-      </c>
-      <c r="J32" t="s">
-        <v>331</v>
-      </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>164</v>
@@ -2913,37 +2921,37 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>164</v>
@@ -2951,37 +2959,37 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" t="s">
         <v>197</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>198</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>199</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>332</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H34" t="s">
-        <v>305</v>
-      </c>
-      <c r="I34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J34" t="s">
-        <v>333</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>164</v>
@@ -2990,37 +2998,37 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H35" t="s">
-        <v>306</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J35" t="s">
-        <v>334</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>164</v>
@@ -3030,37 +3038,37 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" t="s">
+        <v>306</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H36" t="s">
-        <v>307</v>
-      </c>
-      <c r="I36" t="s">
-        <v>249</v>
-      </c>
-      <c r="J36" t="s">
-        <v>335</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>164</v>
